--- a/Income/NVCR_inc.xlsx
+++ b/Income/NVCR_inc.xlsx
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0639</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0615</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.2181</v>
+        <v>0.188</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.1703</v>
@@ -2468,16 +2468,16 @@
         <v>0.08</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.0614</v>
+        <v>0.0604</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.0382</v>
+        <v>0.0371</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.024</v>
+        <v>0.0228</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.0166</v>
+        <v>0.0153</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>-0.0116</v>
